--- a/DDAf_2024_Tableau_annexe_Tab07.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab07.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{338E9D9E-5796-48FF-8D61-DF45FE0858EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A84BDDF0-4F4C-4A78-AFB8-55B12755D94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{52C24923-957A-4023-B706-2AB59FB9E725}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4100899A-8B9C-4398-8E92-9CA721D1E1D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab07" sheetId="1" r:id="rId1"/>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE9EDD8-2D88-4959-A71B-CB26E40721F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F7CC9D-4FCB-43FF-AA27-E35A49354ADC}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1534,15 +1534,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="96" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="96" bestFit="1" customWidth="1"/>
+    <col min="4" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1561,7 +1561,7 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:16" ht="74" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>17</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>45.971637283708802</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>19</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>16.275062773551401</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>21</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>26.559601935677101</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>23</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>24.706561854509498</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>25</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>21.301019178504799</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>28</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>10.6052111008027</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>30</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>18.8810420808252</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>32</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>24.256403487527798</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>34</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>33.785742426540502</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>36</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>8.9280191886615405</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>38</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>24.8676412507964</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>40</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>4.2925399661098398</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>42</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>13.121732798978901</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>44</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>46</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>28.133833996930299</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>48</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>50</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>25.0628200975715</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>52</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>54</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>56</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="34" t="s">
         <v>38</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>22.087481073937798</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>59</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>37.405237226359198</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>61</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>63</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>65</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>10.9796137433314</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>67</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>7.94256700888217</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>69</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>4.8962530736230896</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>71</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>22.399501014741499</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>73</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>23.552692764204199</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>75</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>10.7393731988473</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>77</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>51.688387374900302</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>79</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>81</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>83</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>85</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>9.3299873443736594</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="34" t="s">
         <v>38</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>11.5929984476549</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>88</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>90</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>38.082766083345902</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>92</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>94</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>44.523087068725602</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>96</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>40.532721623999201</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>98</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>37.633041456916203</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="34" t="s">
         <v>38</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>38.831759714215302</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>101</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>19.8870369784049</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>103</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>22.276294883510602</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>105</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>107</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>11.595344174915599</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>109</v>
       </c>
@@ -3978,13 +3978,13 @@
         <v>65.576999999999998</v>
       </c>
       <c r="F50" s="25">
-        <v>79.5</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="G50" s="26">
-        <v>86.8</v>
+        <v>86.9</v>
       </c>
       <c r="H50" s="26">
-        <v>72.599999999999994</v>
+        <v>76</v>
       </c>
       <c r="I50" s="27">
         <v>73.4372560303716</v>
@@ -4011,7 +4011,7 @@
         <v>39.129815497542701</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>111</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>18.738844232898</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>113</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>33.172906245997602</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>115</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>30.466578234038899</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>117</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>10.908797925403</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>119</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>19.141524561529099</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>121</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>19.344147984069199</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>123</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>23.164398719563</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>125</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>41.001865281369597</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>127</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>24.294266322890898</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
         <v>129</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>41.269086228229902</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="34"/>
       <c r="B61" s="35" t="s">
         <v>131</v>
@@ -4526,13 +4526,13 @@
         <v>68.897696428977994</v>
       </c>
       <c r="F61" s="36">
-        <v>87.5</v>
+        <v>87.65</v>
       </c>
       <c r="G61" s="37">
-        <v>90.978571428571399</v>
+        <v>90.985714285714295</v>
       </c>
       <c r="H61" s="52">
-        <v>84.621428571428595</v>
+        <v>84.8642857142857</v>
       </c>
       <c r="I61" s="39">
         <v>80.844311743728099</v>
@@ -4559,7 +4559,7 @@
         <v>22.997087002330201</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="58"/>
       <c r="B62" s="59" t="s">
         <v>132</v>
@@ -4574,13 +4574,13 @@
         <v>72.443718547354607</v>
       </c>
       <c r="F62" s="60">
-        <v>81.846341463414703</v>
+        <v>81.897560975609807</v>
       </c>
       <c r="G62" s="61">
-        <v>83.919512195121996</v>
+        <v>83.921951219512195</v>
       </c>
       <c r="H62" s="61">
-        <v>79.831707317073196</v>
+        <v>79.914634146341498</v>
       </c>
       <c r="I62" s="62">
         <v>69.919145271193898</v>
@@ -4607,7 +4607,7 @@
         <v>23.545398149250101</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="58"/>
       <c r="B63" s="64" t="s">
         <v>133</v>
@@ -4622,13 +4622,13 @@
         <v>73.354158655776402</v>
       </c>
       <c r="F63" s="65">
-        <v>40.772093023255799</v>
+        <v>40.762790697674397</v>
       </c>
       <c r="G63" s="66">
-        <v>40.3244186046512</v>
+        <v>40.327906976744202</v>
       </c>
       <c r="H63" s="61">
-        <v>41.033720930232498</v>
+        <v>41.0162790697674</v>
       </c>
       <c r="I63" s="67">
         <v>40.530964691885202</v>
@@ -4655,7 +4655,7 @@
         <v>27.023910573443999</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="69"/>
       <c r="B64" s="70" t="s">
         <v>134</v>
@@ -4670,13 +4670,13 @@
         <v>74.832169063788101</v>
       </c>
       <c r="F64" s="71">
-        <v>56.395454545454498</v>
+        <v>56.359090909090902</v>
       </c>
       <c r="G64" s="72">
-        <v>54.718181818181797</v>
+        <v>54.731818181818198</v>
       </c>
       <c r="H64" s="66">
-        <v>57.640909090909098</v>
+        <v>57.572727272727299</v>
       </c>
       <c r="I64" s="73">
         <v>32.931468537579697</v>
@@ -4703,7 +4703,7 @@
         <v>21.536445955243298</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="69"/>
       <c r="B65" s="64" t="s">
         <v>135</v>
@@ -4751,7 +4751,7 @@
         <v>32.835493773217401</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="69"/>
       <c r="B66" s="78" t="s">
         <v>136</v>
@@ -4766,13 +4766,13 @@
         <v>73.222809079503307</v>
       </c>
       <c r="F66" s="79">
-        <v>54.032283464566902</v>
+        <v>54.042519685039402</v>
       </c>
       <c r="G66" s="80">
-        <v>54.398425196850397</v>
+        <v>54.4015748031496</v>
       </c>
       <c r="H66" s="80">
-        <v>53.559055118110201</v>
+        <v>53.574015748031499</v>
       </c>
       <c r="I66" s="81">
         <v>44.873564232397797</v>
@@ -4799,7 +4799,7 @@
         <v>26.4472934991248</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="69"/>
       <c r="B67" s="64" t="s">
         <v>137</v>
@@ -4847,7 +4847,7 @@
         <v>21.905227703198101</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="69"/>
       <c r="B68" s="64" t="s">
         <v>138</v>
@@ -4862,13 +4862,13 @@
         <v>68.7404744838271</v>
       </c>
       <c r="F68" s="75">
-        <v>83.834999999999994</v>
+        <v>83.94</v>
       </c>
       <c r="G68" s="76">
-        <v>86.094999999999999</v>
+        <v>86.1</v>
       </c>
       <c r="H68" s="76">
-        <v>81.745000000000005</v>
+        <v>81.915000000000006</v>
       </c>
       <c r="I68" s="67">
         <v>67.858544409530197</v>
@@ -4895,7 +4895,7 @@
         <v>28.697756044313401</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="69"/>
       <c r="B69" s="64" t="s">
         <v>139</v>
@@ -4943,7 +4943,7 @@
         <v>17.175345899504901</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="69"/>
       <c r="B70" s="64" t="s">
         <v>140</v>
@@ -4991,7 +4991,7 @@
         <v>25.670653105349</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="69"/>
       <c r="B71" s="64" t="s">
         <v>141</v>
@@ -5006,13 +5006,13 @@
         <v>68.897696428977895</v>
       </c>
       <c r="F71" s="75">
-        <v>87.5</v>
+        <v>87.65</v>
       </c>
       <c r="G71" s="76">
-        <v>90.978571428571399</v>
+        <v>90.985714285714295</v>
       </c>
       <c r="H71" s="76">
-        <v>84.621428571428595</v>
+        <v>84.8642857142857</v>
       </c>
       <c r="I71" s="67">
         <v>80.844311743727999</v>
@@ -5039,7 +5039,7 @@
         <v>22.997087002330201</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="69"/>
       <c r="B72" s="64" t="s">
         <v>142</v>
@@ -5087,7 +5087,7 @@
         <v>11.3968991123172</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="69"/>
       <c r="B73" s="64" t="s">
         <v>143</v>
@@ -5135,7 +5135,7 @@
         <v>23.329132840297</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="69"/>
       <c r="B74" s="64" t="s">
         <v>143</v>
@@ -5183,7 +5183,7 @@
         <v>40.030193065972703</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="69"/>
       <c r="B75" s="64" t="s">
         <v>144</v>
@@ -5231,7 +5231,7 @@
         <v>29.071714398296201</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="69"/>
       <c r="B76" s="83" t="s">
         <v>145</v>
@@ -5279,7 +5279,7 @@
         <v>18.600528601060699</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="69"/>
       <c r="B77" s="64" t="s">
         <v>146</v>
@@ -5327,7 +5327,7 @@
         <v>19.815818809224702</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="69"/>
       <c r="B78" s="64" t="s">
         <v>146</v>
@@ -5375,7 +5375,7 @@
         <v>12.616517432459499</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="69"/>
       <c r="B79" s="78" t="s">
         <v>147</v>
@@ -5423,7 +5423,7 @@
         <v>19.833222520421799</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="69"/>
       <c r="B80" s="64" t="s">
         <v>148</v>
@@ -5471,7 +5471,7 @@
         <v>40.217381121150503</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="69"/>
       <c r="B81" s="64" t="s">
         <v>149</v>
@@ -5519,7 +5519,7 @@
         <v>25.535914237703199</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="69"/>
       <c r="B82" s="64" t="s">
         <v>150</v>
@@ -5534,13 +5534,13 @@
         <v>72.7281883657067</v>
       </c>
       <c r="F82" s="75">
-        <v>81.494594594594602</v>
+        <v>81.5513513513514</v>
       </c>
       <c r="G82" s="76">
-        <v>83.529729729729794</v>
+        <v>83.5324324324325</v>
       </c>
       <c r="H82" s="76">
-        <v>79.491891891891896</v>
+        <v>79.583783783783801</v>
       </c>
       <c r="I82" s="67">
         <v>71.143652653229296</v>
@@ -5567,7 +5567,7 @@
         <v>22.842208371414198</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="69"/>
       <c r="B83" s="64" t="s">
         <v>151</v>
@@ -5582,13 +5582,13 @@
         <v>73.471533217163994</v>
       </c>
       <c r="F83" s="65">
-        <v>38.802564102564098</v>
+        <v>38.792307692307702</v>
       </c>
       <c r="G83" s="66">
-        <v>38.725641025641004</v>
+        <v>38.729487179487201</v>
       </c>
       <c r="H83" s="80">
-        <v>38.919230769230801</v>
+        <v>38.9</v>
       </c>
       <c r="I83" s="67">
         <v>41.949954436466399</v>
@@ -5615,7 +5615,7 @@
         <v>27.199436956598198</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="69"/>
       <c r="B84" s="83" t="s">
         <v>152</v>
@@ -5630,13 +5630,13 @@
         <v>75.981515869987405</v>
       </c>
       <c r="F84" s="84">
-        <v>90.966666666666697</v>
+        <v>91.0833333333333</v>
       </c>
       <c r="G84" s="85">
-        <v>93.933333333333394</v>
+        <v>93.938888888888897</v>
       </c>
       <c r="H84" s="76">
-        <v>88.4166666666667</v>
+        <v>88.605555555555597</v>
       </c>
       <c r="I84" s="86">
         <v>80.595944677648504</v>
@@ -5663,7 +5663,7 @@
         <v>18.277322958283801</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="69"/>
       <c r="B85" s="88" t="s">
         <v>153</v>
@@ -5711,7 +5711,7 @@
         <v>41.999969656548998</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="69"/>
       <c r="B86" s="64" t="s">
         <v>154</v>
@@ -5759,7 +5759,7 @@
         <v>27.022808095667202</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="69"/>
       <c r="B87" s="64" t="s">
         <v>155</v>
@@ -5807,7 +5807,7 @@
         <v>34.421895484682203</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="69"/>
       <c r="B88" s="64" t="s">
         <v>156</v>
@@ -5855,7 +5855,7 @@
         <v>23.731723019719102</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="69"/>
       <c r="B89" s="64" t="s">
         <v>157</v>
@@ -5903,7 +5903,7 @@
         <v>21.306887164332601</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="69"/>
       <c r="B90" s="78" t="s">
         <v>158</v>
@@ -5918,13 +5918,13 @@
         <v>68.272221131503898</v>
       </c>
       <c r="F90" s="79">
-        <v>14.0648648648649</v>
+        <v>14.0432432432432</v>
       </c>
       <c r="G90" s="80">
-        <v>13.3918918918919</v>
+        <v>13.4</v>
       </c>
       <c r="H90" s="80">
-        <v>14.5648648648649</v>
+        <v>14.524324324324301</v>
       </c>
       <c r="I90" s="81">
         <v>8.9842924797394303</v>
@@ -5951,7 +5951,7 @@
         <v>16.989734059436799</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="69"/>
       <c r="B91" s="64" t="s">
         <v>159</v>
@@ -5966,13 +5966,13 @@
         <v>75.854886320898601</v>
       </c>
       <c r="F91" s="75">
-        <v>88.962962962963005</v>
+        <v>89.040740740740802</v>
       </c>
       <c r="G91" s="76">
-        <v>92.244444444444497</v>
+        <v>92.248148148148204</v>
       </c>
       <c r="H91" s="76">
-        <v>86.425925925925895</v>
+        <v>86.551851851851893</v>
       </c>
       <c r="I91" s="67">
         <v>79.140438779626507</v>
@@ -5999,7 +5999,7 @@
         <v>21.720709931917099</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="69"/>
       <c r="B92" s="64" t="s">
         <v>160</v>
@@ -6047,7 +6047,7 @@
         <v>28.345889136284701</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="69"/>
       <c r="B93" s="64" t="s">
         <v>161</v>
@@ -6095,7 +6095,7 @@
         <v>28.019723604132999</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="69"/>
       <c r="B94" s="64" t="s">
         <v>162</v>
@@ -6143,7 +6143,7 @@
         <v>24.9056435323456</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="69"/>
       <c r="B95" s="64" t="s">
         <v>163</v>
@@ -6191,7 +6191,7 @@
         <v>16.3353195366291</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="69"/>
       <c r="B96" s="64" t="s">
         <v>164</v>
@@ -6239,7 +6239,7 @@
         <v>26.881498350399699</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="69"/>
       <c r="B97" s="83" t="s">
         <v>165</v>
@@ -6254,13 +6254,13 @@
         <v>74.937033192174695</v>
       </c>
       <c r="F97" s="84">
-        <v>86.888461538461598</v>
+        <v>86.969230769230805</v>
       </c>
       <c r="G97" s="85">
-        <v>90.834615384615404</v>
+        <v>90.838461538461601</v>
       </c>
       <c r="H97" s="76">
-        <v>83.742307692307705</v>
+        <v>83.873076923076894</v>
       </c>
       <c r="I97" s="86">
         <v>78.752550475185203</v>
@@ -6287,7 +6287,7 @@
         <v>18.769609079268601</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="69"/>
       <c r="B98" s="78" t="s">
         <v>166</v>
@@ -6335,7 +6335,7 @@
         <v>34.009640670224201</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="90"/>
       <c r="B99" s="91"/>
       <c r="C99" s="92"/>
@@ -6353,7 +6353,7 @@
       <c r="O99" s="92"/>
       <c r="P99" s="92"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>167</v>
       </c>
@@ -6372,7 +6372,7 @@
       <c r="O100" s="93"/>
       <c r="P100" s="93"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>168</v>
       </c>
@@ -6391,7 +6391,7 @@
       <c r="O101" s="93"/>
       <c r="P101" s="93"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>169</v>
       </c>
@@ -6410,7 +6410,7 @@
       <c r="O102" s="93"/>
       <c r="P102" s="93"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>170</v>
       </c>
@@ -6429,7 +6429,7 @@
       <c r="O103" s="93"/>
       <c r="P103" s="93"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>171</v>
       </c>
@@ -6448,7 +6448,7 @@
       <c r="O104" s="93"/>
       <c r="P104" s="93"/>
     </row>
-    <row r="105" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B105" s="94"/>
       <c r="C105" s="93"/>
       <c r="D105" s="93"/>
@@ -6465,7 +6465,7 @@
       <c r="O105" s="93"/>
       <c r="P105" s="93"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C106" s="93"/>
       <c r="D106" s="93"/>
       <c r="E106" s="93"/>
@@ -6481,7 +6481,7 @@
       <c r="O106" s="93"/>
       <c r="P106" s="93"/>
     </row>
-    <row r="107" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="95" t="s">
         <v>172</v>
       </c>
@@ -6500,7 +6500,7 @@
       <c r="O107" s="93"/>
       <c r="P107" s="93"/>
     </row>
-    <row r="108" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="95"/>
       <c r="C108" s="93"/>
       <c r="D108" s="93"/>
@@ -6517,7 +6517,7 @@
       <c r="O108" s="93"/>
       <c r="P108" s="93"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
         <v>174</v>
       </c>
@@ -6536,7 +6536,7 @@
       <c r="O109" s="93"/>
       <c r="P109" s="93"/>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
         <v>175</v>
       </c>
@@ -6555,7 +6555,7 @@
       <c r="O110" s="93"/>
       <c r="P110" s="93"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B111" s="97" t="s">
         <v>176</v>
       </c>
@@ -6574,7 +6574,7 @@
       <c r="O111" s="93"/>
       <c r="P111" s="93"/>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>173</v>
       </c>
@@ -6593,7 +6593,7 @@
       <c r="O112" s="93"/>
       <c r="P112" s="93"/>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="93"/>
       <c r="D113" s="93"/>
@@ -6610,7 +6610,7 @@
       <c r="O113" s="93"/>
       <c r="P113" s="93"/>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="93"/>
       <c r="D114" s="93"/>
@@ -6629,11 +6629,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{8F0F467B-0624-419E-8ECF-72397082FE9E}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{4405302B-CCC2-4FFA-8AA7-F3D89045CD4B}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{39598CC3-08DE-4B64-9A1C-C4FD512B1036}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{E8261CC4-0D01-4FA1-B935-5F3BAF207B84}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{0CA18006-4776-47EE-9C1D-BB02C5FE3196}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{B83A904D-9466-4737-B4A1-17BBEC5DE374}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{12E3E97F-DCCF-4216-A343-AFFFF4819BE8}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{4C2DC423-67A3-40AA-A1E3-1215AF93FABC}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{33D532EF-CB48-4BD2-987A-D39D00797D8E}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{BB766A1E-404E-451A-9DF1-636277D7150A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab07.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab07.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A84BDDF0-4F4C-4A78-AFB8-55B12755D94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0FAA0B9-8E14-448E-BBB0-FBF9433F7414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4100899A-8B9C-4398-8E92-9CA721D1E1D5}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{D78AE908-1FAA-41AE-B0A2-C2D927DBF962}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab07" sheetId="1" r:id="rId1"/>
@@ -1209,8 +1209,8 @@
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F7CC9D-4FCB-43FF-AA27-E35A49354ADC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B651CFA-FA23-4D62-9BA8-FC150130DA37}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1538,7 +1538,7 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="96" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="97" bestFit="1" customWidth="1"/>
     <col min="4" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6556,7 +6556,7 @@
       <c r="P110" s="93"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B111" s="97" t="s">
+      <c r="B111" s="96" t="s">
         <v>176</v>
       </c>
       <c r="C111" s="93"/>
@@ -6575,7 +6575,7 @@
       <c r="P111" s="93"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="96" t="s">
         <v>173</v>
       </c>
       <c r="C112" s="93"/>
@@ -6629,11 +6629,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{B83A904D-9466-4737-B4A1-17BBEC5DE374}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{12E3E97F-DCCF-4216-A343-AFFFF4819BE8}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{4C2DC423-67A3-40AA-A1E3-1215AF93FABC}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{33D532EF-CB48-4BD2-987A-D39D00797D8E}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{BB766A1E-404E-451A-9DF1-636277D7150A}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{EF9EA3DA-EC00-4BDE-BCAF-4A0665FB4DAC}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{A61AC10D-DA79-415E-B97C-B935B01109FE}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{83945342-5CCE-4C29-AAC0-B7BE31C6871B}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{77DC3AB9-0519-4852-973E-57285B3ECD3F}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{306BB7AA-F311-4687-B70F-3F46B703A0D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab07.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab07.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0FAA0B9-8E14-448E-BBB0-FBF9433F7414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF1ED7BD-9361-4F69-9D1A-C872CA237AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{D78AE908-1FAA-41AE-B0A2-C2D927DBF962}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AB162E29-4606-4573-9063-49ADA94D6810}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab07" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="179">
   <si>
     <t>Tableau 7 : Caractéristiques de la population active</t>
   </si>
@@ -474,13 +474,19 @@
     <t>UMA</t>
   </si>
   <si>
+    <t>PALOP</t>
+  </si>
+  <si>
     <t>ASEAN</t>
   </si>
   <si>
     <t>MERCOSUR</t>
   </si>
   <si>
-    <t>EU28</t>
+    <t>EU27</t>
+  </si>
+  <si>
+    <t>OCDE</t>
   </si>
   <si>
     <t xml:space="preserve">Afrique, pays riches en ressources </t>
@@ -1526,7 +1532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B651CFA-FA23-4D62-9BA8-FC150130DA37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EA34B2-443D-474F-8AD1-10D3C89CA306}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5138,7 +5144,7 @@
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="69"/>
       <c r="B74" s="64" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C74" s="75">
         <v>43.851282642304703</v>
@@ -5186,7 +5192,7 @@
     <row r="75" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="69"/>
       <c r="B75" s="64" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C75" s="65">
         <v>76.1841618069395</v>
@@ -5234,7 +5240,7 @@
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="69"/>
       <c r="B76" s="83" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C76" s="84">
         <v>66.2132896087668</v>
@@ -5282,7 +5288,7 @@
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="69"/>
       <c r="B77" s="64" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C77" s="75">
         <v>63.233943955548199</v>
@@ -5330,7 +5336,7 @@
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="69"/>
       <c r="B78" s="64" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C78" s="75">
         <v>57.908764804156498</v>
@@ -5378,7 +5384,7 @@
     <row r="79" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="69"/>
       <c r="B79" s="78" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C79" s="79">
         <v>60.802762867625603</v>
@@ -5426,7 +5432,7 @@
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="69"/>
       <c r="B80" s="64" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C80" s="75">
         <v>56.445730312042102</v>
@@ -5474,7 +5480,7 @@
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="69"/>
       <c r="B81" s="64" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C81" s="75">
         <v>55.542230530420298</v>
@@ -5522,7 +5528,7 @@
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="69"/>
       <c r="B82" s="64" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C82" s="75">
         <v>63.824817841652802</v>
@@ -5570,7 +5576,7 @@
     <row r="83" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="69"/>
       <c r="B83" s="64" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C83" s="65">
         <v>61.080532097663401</v>
@@ -5618,7 +5624,7 @@
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="69"/>
       <c r="B84" s="83" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C84" s="84">
         <v>69.711199351458205</v>
@@ -5666,7 +5672,7 @@
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="69"/>
       <c r="B85" s="88" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C85" s="75">
         <v>46.986593688633</v>
@@ -5714,7 +5720,7 @@
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="69"/>
       <c r="B86" s="64" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C86" s="75">
         <v>59.081754846637502</v>
@@ -5762,7 +5768,7 @@
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="69"/>
       <c r="B87" s="64" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C87" s="75">
         <v>55.9046998906894</v>
@@ -5810,7 +5816,7 @@
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="69"/>
       <c r="B88" s="64" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C88" s="75">
         <v>56.971313520850202</v>
@@ -5858,7 +5864,7 @@
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="69"/>
       <c r="B89" s="64" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C89" s="75">
         <v>64.755996645884395</v>
@@ -5906,7 +5912,7 @@
     <row r="90" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="69"/>
       <c r="B90" s="78" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C90" s="79">
         <v>61.327445325775699</v>
@@ -5954,7 +5960,7 @@
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="69"/>
       <c r="B91" s="64" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C91" s="75">
         <v>69.508329999666103</v>
@@ -6002,7 +6008,7 @@
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="69"/>
       <c r="B92" s="64" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C92" s="75">
         <v>53.942733509391601</v>
@@ -6050,7 +6056,7 @@
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="69"/>
       <c r="B93" s="64" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C93" s="75">
         <v>54.195741095994599</v>
@@ -6098,7 +6104,7 @@
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="69"/>
       <c r="B94" s="64" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C94" s="75">
         <v>60.574739096261602</v>
@@ -6146,7 +6152,7 @@
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="69"/>
       <c r="B95" s="64" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C95" s="75">
         <v>72.062980734041503</v>
@@ -6194,7 +6200,7 @@
     <row r="96" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="69"/>
       <c r="B96" s="64" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C96" s="65">
         <v>54.242681879247897</v>
@@ -6242,7 +6248,7 @@
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="69"/>
       <c r="B97" s="83" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C97" s="84">
         <v>69.307321312366</v>
@@ -6290,7 +6296,7 @@
     <row r="98" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="69"/>
       <c r="B98" s="78" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C98" s="79">
         <v>55.017178132929502</v>
@@ -6355,7 +6361,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C100" s="93"/>
       <c r="D100" s="93"/>
@@ -6374,7 +6380,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C101" s="93"/>
       <c r="D101" s="93"/>
@@ -6393,7 +6399,7 @@
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C102" s="93"/>
       <c r="D102" s="93"/>
@@ -6412,7 +6418,7 @@
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C103" s="93"/>
       <c r="D103" s="93"/>
@@ -6431,7 +6437,7 @@
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C104" s="93"/>
       <c r="D104" s="93"/>
@@ -6483,7 +6489,7 @@
     </row>
     <row r="107" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="95" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C107" s="93"/>
       <c r="D107" s="93"/>
@@ -6519,7 +6525,7 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C109" s="93"/>
       <c r="D109" s="93"/>
@@ -6538,7 +6544,7 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C110" s="93"/>
       <c r="D110" s="93"/>
@@ -6557,7 +6563,7 @@
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B111" s="96" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C111" s="93"/>
       <c r="D111" s="93"/>
@@ -6576,7 +6582,7 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B112" s="96" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C112" s="93"/>
       <c r="D112" s="93"/>
@@ -6629,11 +6635,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{EF9EA3DA-EC00-4BDE-BCAF-4A0665FB4DAC}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{A61AC10D-DA79-415E-B97C-B935B01109FE}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{83945342-5CCE-4C29-AAC0-B7BE31C6871B}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{77DC3AB9-0519-4852-973E-57285B3ECD3F}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{306BB7AA-F311-4687-B70F-3F46B703A0D5}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{795E8991-E511-4F7C-A744-95960F1A6FB4}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{F4574E16-5987-4134-B56D-E366A2F3AA65}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{2E4A4220-6C2C-4E4E-BA67-DA5B8A7DC15C}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{1D3350D9-D2E5-4F7B-912A-3326254D444A}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{1C936F73-FBAB-41D4-8920-9A833788B1E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId6"/>
